--- a/Homework/JulyBinomialHW.xlsx
+++ b/Homework/JulyBinomialHW.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anguyen\Documents\GitHub\Stats using Excel\stats-primer\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D9C1CD-E7AF-491E-8D48-BB99B8AA8316}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -144,8 +150,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +186,13 @@
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,9 +229,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="10"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,60 +518,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.1796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="58.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="7">
+        <f>_xlfn.BINOM.DIST.RANGE(50,0.04,10,50)</f>
+        <v>2.4722574807427901E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="6">
+        <f>_xlfn.BINOM.DIST.RANGE(101,0.95,101,101)</f>
+        <v>5.6245027593172982E-3</v>
+      </c>
+      <c r="C5" s="6">
+        <f>_xlfn.BINOM.DIST.RANGE(105,0.95,101,105)</f>
+        <v>0.39243372050478653</v>
+      </c>
+      <c r="D5" s="5">
+        <f>_xlfn.BINOM.DIST.RANGE(112,0.95,101,112)</f>
+        <v>0.98958943865110849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6">
+        <f>_xlfn.BINOM.DIST.RANGE(10,0.5,8,10)</f>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <f>_xlfn.BINOM.DIST.RANGE(100,B6,10,100)</f>
+        <v>4.7182045074899884E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <f>_xlfn.BINOM.DIST.RANGE(100,0.04,2,2)</f>
+        <v>0.14497930699011416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <f>_xlfn.BINOM.DIST.RANGE(100,0.5,61,100)</f>
+        <v>1.7600100108852414E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
   </sheetData>
